--- a/Data/Transitions/19551973Translation.xlsx
+++ b/Data/Transitions/19551973Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="697">
   <si>
     <t>id</t>
   </si>
@@ -595,7 +595,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.6871389480085133}</t>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{398.0: 1.0, 98.0: 0.198807936632421, 532.0: 0.33661933616713396, 560.0: 0.09696578437701743}</t>
@@ -1730,9 +1730,6 @@
   </si>
   <si>
     <t>{315.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{320.0: 1.0}</t>
   </si>
   <si>
     <t>{398.0: 0.8644858180802012, 98.0: 0.04427483582506636, 532.0: 0.0650062875506497, 560.0: 0.026233058544082716}</t>
@@ -4580,7 +4577,7 @@
         <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>572</v>
+        <v>193</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -4591,7 +4588,7 @@
         <v>194</v>
       </c>
       <c r="C193" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -4613,7 +4610,7 @@
         <v>196</v>
       </c>
       <c r="C195" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -4624,7 +4621,7 @@
         <v>197</v>
       </c>
       <c r="C196" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -4635,7 +4632,7 @@
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -4646,7 +4643,7 @@
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -4657,7 +4654,7 @@
         <v>200</v>
       </c>
       <c r="C199" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -4701,7 +4698,7 @@
         <v>204</v>
       </c>
       <c r="C203" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -4767,7 +4764,7 @@
         <v>210</v>
       </c>
       <c r="C209" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -4811,7 +4808,7 @@
         <v>214</v>
       </c>
       <c r="C213" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -4822,7 +4819,7 @@
         <v>215</v>
       </c>
       <c r="C214" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -4844,7 +4841,7 @@
         <v>217</v>
       </c>
       <c r="C216" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -4921,7 +4918,7 @@
         <v>224</v>
       </c>
       <c r="C223" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -4943,7 +4940,7 @@
         <v>226</v>
       </c>
       <c r="C225" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -4954,7 +4951,7 @@
         <v>227</v>
       </c>
       <c r="C226" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -4965,7 +4962,7 @@
         <v>228</v>
       </c>
       <c r="C227" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -4987,7 +4984,7 @@
         <v>230</v>
       </c>
       <c r="C229" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -5031,7 +5028,7 @@
         <v>234</v>
       </c>
       <c r="C233" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -5042,7 +5039,7 @@
         <v>235</v>
       </c>
       <c r="C234" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -5053,7 +5050,7 @@
         <v>236</v>
       </c>
       <c r="C235" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -5064,7 +5061,7 @@
         <v>237</v>
       </c>
       <c r="C236" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -5075,7 +5072,7 @@
         <v>238</v>
       </c>
       <c r="C237" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -5097,7 +5094,7 @@
         <v>240</v>
       </c>
       <c r="C239" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -5196,7 +5193,7 @@
         <v>249</v>
       </c>
       <c r="C248" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -5207,7 +5204,7 @@
         <v>250</v>
       </c>
       <c r="C249" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -5218,7 +5215,7 @@
         <v>251</v>
       </c>
       <c r="C250" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -5262,7 +5259,7 @@
         <v>255</v>
       </c>
       <c r="C254" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -5273,7 +5270,7 @@
         <v>256</v>
       </c>
       <c r="C255" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -5350,7 +5347,7 @@
         <v>263</v>
       </c>
       <c r="C262" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -5361,7 +5358,7 @@
         <v>264</v>
       </c>
       <c r="C263" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -5372,7 +5369,7 @@
         <v>265</v>
       </c>
       <c r="C264" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -5394,7 +5391,7 @@
         <v>267</v>
       </c>
       <c r="C266" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -5416,7 +5413,7 @@
         <v>269</v>
       </c>
       <c r="C268" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -5427,7 +5424,7 @@
         <v>270</v>
       </c>
       <c r="C269" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -5438,7 +5435,7 @@
         <v>271</v>
       </c>
       <c r="C270" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -5471,7 +5468,7 @@
         <v>274</v>
       </c>
       <c r="C273" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -5493,7 +5490,7 @@
         <v>276</v>
       </c>
       <c r="C275" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -5504,7 +5501,7 @@
         <v>277</v>
       </c>
       <c r="C276" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -5515,7 +5512,7 @@
         <v>278</v>
       </c>
       <c r="C277" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -5526,7 +5523,7 @@
         <v>279</v>
       </c>
       <c r="C278" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -5537,7 +5534,7 @@
         <v>280</v>
       </c>
       <c r="C279" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -5548,7 +5545,7 @@
         <v>281</v>
       </c>
       <c r="C280" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -5570,7 +5567,7 @@
         <v>283</v>
       </c>
       <c r="C282" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -5581,7 +5578,7 @@
         <v>284</v>
       </c>
       <c r="C283" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -5603,7 +5600,7 @@
         <v>286</v>
       </c>
       <c r="C285" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -5625,7 +5622,7 @@
         <v>288</v>
       </c>
       <c r="C287" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -5636,7 +5633,7 @@
         <v>289</v>
       </c>
       <c r="C288" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -5647,7 +5644,7 @@
         <v>290</v>
       </c>
       <c r="C289" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -5691,7 +5688,7 @@
         <v>294</v>
       </c>
       <c r="C293" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -5702,7 +5699,7 @@
         <v>295</v>
       </c>
       <c r="C294" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -5735,7 +5732,7 @@
         <v>298</v>
       </c>
       <c r="C297" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -5768,7 +5765,7 @@
         <v>301</v>
       </c>
       <c r="C300" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -5823,7 +5820,7 @@
         <v>306</v>
       </c>
       <c r="C305" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -5834,7 +5831,7 @@
         <v>307</v>
       </c>
       <c r="C306" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -5856,7 +5853,7 @@
         <v>309</v>
       </c>
       <c r="C308" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -5867,7 +5864,7 @@
         <v>310</v>
       </c>
       <c r="C309" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -5889,7 +5886,7 @@
         <v>312</v>
       </c>
       <c r="C311" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -5955,7 +5952,7 @@
         <v>318</v>
       </c>
       <c r="C317" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -5977,7 +5974,7 @@
         <v>320</v>
       </c>
       <c r="C319" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -5988,7 +5985,7 @@
         <v>321</v>
       </c>
       <c r="C320" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -6010,7 +6007,7 @@
         <v>323</v>
       </c>
       <c r="C322" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -6065,7 +6062,7 @@
         <v>328</v>
       </c>
       <c r="C327" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -6087,7 +6084,7 @@
         <v>330</v>
       </c>
       <c r="C329" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -6142,7 +6139,7 @@
         <v>335</v>
       </c>
       <c r="C334" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -6153,7 +6150,7 @@
         <v>336</v>
       </c>
       <c r="C335" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -6164,7 +6161,7 @@
         <v>337</v>
       </c>
       <c r="C336" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -6175,7 +6172,7 @@
         <v>338</v>
       </c>
       <c r="C337" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -6186,7 +6183,7 @@
         <v>339</v>
       </c>
       <c r="C338" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -6197,7 +6194,7 @@
         <v>340</v>
       </c>
       <c r="C339" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -6252,7 +6249,7 @@
         <v>345</v>
       </c>
       <c r="C344" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -6274,7 +6271,7 @@
         <v>347</v>
       </c>
       <c r="C346" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -6285,7 +6282,7 @@
         <v>348</v>
       </c>
       <c r="C347" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -6318,7 +6315,7 @@
         <v>351</v>
       </c>
       <c r="C350" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -6329,7 +6326,7 @@
         <v>352</v>
       </c>
       <c r="C351" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -6373,7 +6370,7 @@
         <v>356</v>
       </c>
       <c r="C355" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -6406,7 +6403,7 @@
         <v>359</v>
       </c>
       <c r="C358" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -6417,7 +6414,7 @@
         <v>360</v>
       </c>
       <c r="C359" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -6450,7 +6447,7 @@
         <v>363</v>
       </c>
       <c r="C362" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -6461,7 +6458,7 @@
         <v>364</v>
       </c>
       <c r="C363" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -6494,7 +6491,7 @@
         <v>367</v>
       </c>
       <c r="C366" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -6505,7 +6502,7 @@
         <v>368</v>
       </c>
       <c r="C367" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -6516,7 +6513,7 @@
         <v>369</v>
       </c>
       <c r="C368" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -6549,7 +6546,7 @@
         <v>372</v>
       </c>
       <c r="C371" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -6593,7 +6590,7 @@
         <v>376</v>
       </c>
       <c r="C375" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -6769,7 +6766,7 @@
         <v>392</v>
       </c>
       <c r="C391" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -6824,7 +6821,7 @@
         <v>397</v>
       </c>
       <c r="C396" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -6835,7 +6832,7 @@
         <v>398</v>
       </c>
       <c r="C397" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -6868,7 +6865,7 @@
         <v>401</v>
       </c>
       <c r="C400" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -6879,7 +6876,7 @@
         <v>402</v>
       </c>
       <c r="C401" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -6890,7 +6887,7 @@
         <v>403</v>
       </c>
       <c r="C402" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -6912,7 +6909,7 @@
         <v>405</v>
       </c>
       <c r="C404" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -6923,7 +6920,7 @@
         <v>406</v>
       </c>
       <c r="C405" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -6934,7 +6931,7 @@
         <v>407</v>
       </c>
       <c r="C406" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -6945,7 +6942,7 @@
         <v>408</v>
       </c>
       <c r="C407" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -6956,7 +6953,7 @@
         <v>409</v>
       </c>
       <c r="C408" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -6967,7 +6964,7 @@
         <v>410</v>
       </c>
       <c r="C409" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -6978,7 +6975,7 @@
         <v>411</v>
       </c>
       <c r="C410" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -6989,7 +6986,7 @@
         <v>412</v>
       </c>
       <c r="C411" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -7022,7 +7019,7 @@
         <v>415</v>
       </c>
       <c r="C414" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -7044,7 +7041,7 @@
         <v>417</v>
       </c>
       <c r="C416" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -7066,7 +7063,7 @@
         <v>419</v>
       </c>
       <c r="C418" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -7088,7 +7085,7 @@
         <v>421</v>
       </c>
       <c r="C420" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -7143,7 +7140,7 @@
         <v>426</v>
       </c>
       <c r="C425" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -7198,7 +7195,7 @@
         <v>431</v>
       </c>
       <c r="C430" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -7209,7 +7206,7 @@
         <v>432</v>
       </c>
       <c r="C431" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -7220,7 +7217,7 @@
         <v>433</v>
       </c>
       <c r="C432" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -7275,7 +7272,7 @@
         <v>438</v>
       </c>
       <c r="C437" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -7286,7 +7283,7 @@
         <v>439</v>
       </c>
       <c r="C438" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -7297,7 +7294,7 @@
         <v>440</v>
       </c>
       <c r="C439" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -7308,7 +7305,7 @@
         <v>441</v>
       </c>
       <c r="C440" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -7319,7 +7316,7 @@
         <v>442</v>
       </c>
       <c r="C441" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -7330,7 +7327,7 @@
         <v>443</v>
       </c>
       <c r="C442" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -7352,7 +7349,7 @@
         <v>445</v>
       </c>
       <c r="C444" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -7374,7 +7371,7 @@
         <v>447</v>
       </c>
       <c r="C446" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -7451,7 +7448,7 @@
         <v>454</v>
       </c>
       <c r="C453" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -7484,7 +7481,7 @@
         <v>457</v>
       </c>
       <c r="C456" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -7517,7 +7514,7 @@
         <v>460</v>
       </c>
       <c r="C459" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -7550,7 +7547,7 @@
         <v>463</v>
       </c>
       <c r="C462" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -7583,7 +7580,7 @@
         <v>466</v>
       </c>
       <c r="C465" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -7605,7 +7602,7 @@
         <v>468</v>
       </c>
       <c r="C467" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -7627,7 +7624,7 @@
         <v>470</v>
       </c>
       <c r="C469" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -7649,7 +7646,7 @@
         <v>472</v>
       </c>
       <c r="C471" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -7660,7 +7657,7 @@
         <v>473</v>
       </c>
       <c r="C472" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -7682,7 +7679,7 @@
         <v>475</v>
       </c>
       <c r="C474" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -7693,7 +7690,7 @@
         <v>476</v>
       </c>
       <c r="C475" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -7792,7 +7789,7 @@
         <v>485</v>
       </c>
       <c r="C484" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
   </sheetData>
